--- a/biology/Zoologie/Achelata/Achelata.xlsx
+++ b/biology/Zoologie/Achelata/Achelata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Achelata sont un infra-ordre de crustacés décapodes du sous-ordre des Macrura Reptantia, qui comprend notamment les langoustes et cigales de mer. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Langoustes et cigales de mer appartiennent à l'infra-ordre des Achelata (du préfixe privatif grec α- (a-), qui signifie «sans », et χηλή (chēlē) « membre armé d'ongles crochus », « pince »). Ces espèces sont donc caractérisées entre autres par leur absence de pinces.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des infra-ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (31 décembre 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (31 décembre 2018) :
 famille Palinuridae Latreille, 1802 -- langoustes
 famille Scyllaridae Latreille, 1825 -- cigales de mer
 			Panulirus longipes, une langouste
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Scholtz &amp; Richter, 1995 : Phylogenetic systematics of the reptantian Decapoda (Crustacea, Malacostraca).  Zoological Journal of the Linnean Society, vol. 113, n. 3, pp. 289-328 (introduction) (en).</t>
         </is>
